--- a/Finflux Automation Excels/Client/5050-Nabkisan-CompondingPenalityCharge-subsidy-AfterRepayment-RevokeSubsidy.xlsx
+++ b/Finflux Automation Excels/Client/5050-Nabkisan-CompondingPenalityCharge-subsidy-AfterRepayment-RevokeSubsidy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -1112,11 +1112,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -2700,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,7 +2763,6 @@
       <c r="H2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2784,7 +2786,6 @@
       <c r="G3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="6"/>
       <c r="I3" s="9" t="s">
         <v>48</v>
       </c>
